--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -1,105 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsp80\Documents\FIN 450\Recital-Automation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1A3CED-4F40-4960-AF9A-DF55599D5CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="10_00am" sheetId="1" r:id="rId1"/>
-    <sheet name="12_30pm" sheetId="2" r:id="rId2"/>
+    <sheet name="10_00am" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="12_30pm" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>Auto Entry</t>
-  </si>
-  <si>
-    <t>Performers (Full Names, Comma Separated):</t>
-  </si>
-  <si>
-    <t>Song1 Title:</t>
-  </si>
-  <si>
-    <t>Song1 Composer/Arr.:</t>
-  </si>
-  <si>
-    <t>Song2 Title:</t>
-  </si>
-  <si>
-    <t>Song2 Composer/Arr.:</t>
-  </si>
-  <si>
-    <t>Song3 Title:</t>
-  </si>
-  <si>
-    <t>Song3 Composer/Arr.:</t>
-  </si>
-  <si>
-    <t>Single Entry: Eleanor Rigby - The Beatles</t>
-  </si>
-  <si>
-    <t>Single Entry</t>
-  </si>
-  <si>
-    <t>Eleanor Rigby</t>
-  </si>
-  <si>
-    <t>The Beatles</t>
-  </si>
-  <si>
-    <t>NA: Justin Powley, Keith Cole, Fred Dreary, Pam Carlson,;</t>
-  </si>
-  <si>
-    <t>Justin Powley, Keith Cole, Fred Dreary, Pam Carlson,</t>
-  </si>
-  <si>
-    <t>NA: Michael Jackson, Jermaine Jackson, Tito Jackson, Randy Jackson, Marlon Jackson;</t>
-  </si>
-  <si>
-    <t>Michael Jackson, Jermaine Jackson, Tito Jackson, Randy Jackson, Marlon Jackson</t>
-  </si>
-  <si>
-    <t>NA: Ryan, Ashley, Connor;</t>
-  </si>
-  <si>
-    <t>Ryan, Ashley, Connor</t>
-  </si>
-  <si>
-    <t>The Cure: Robert Smith, Simon Gallup, Gary X, Roger O'Donnell; Pictures of You - The Cure / Friday I'm in Love - The Cure</t>
-  </si>
-  <si>
-    <t>Robert Smith, Simon Gallup, Gary X, Roger O'Donnell</t>
-  </si>
-  <si>
-    <t>Pictures of You</t>
-  </si>
-  <si>
-    <t>The Cure</t>
-  </si>
-  <si>
-    <t>Friday I'm in Love</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Band Name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performers (Full Names, Comma Separated):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song1 Title:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song1 Composer/Arr.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song2 Title:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song2 Composer/Arr.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song3 Title:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song3 Composer/Arr.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Entry: Eleanor Rigby - The Beatles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eleanor Rigby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Beatles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA: Justin Powley, Keith Cole, Fred Dreary, Pam Carlson,;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Powley, Keith Cole, Fred Dreary, Pam Carlson,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA: Michael Jackson, Jermaine Jackson, Tito Jackson, Randy Jackson, Marlon Jackson;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Jackson, Jermaine Jackson, Tito Jackson, Randy Jackson, Marlon Jackson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA: Ryan, Ashley, Connor;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan, Ashley, Connor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cure: Robert Smith, Simon Gallup, Gary X, Roger O'Donnell; Pictures of You - The Cure / Friday I'm in Love - The Cure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Smith, Simon Gallup, Gary X, Roger O'Donnell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pictures of You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friday I'm in Love</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,15 +131,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -425,27 +412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,55 +447,65 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="C2"/>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
       </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
         <v>14</v>
       </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="109.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,54 +533,76 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
         <v>16</v>
       </c>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>